--- a/RefractiveIndex.xlsx
+++ b/RefractiveIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TEG-NAS\TEG_Home\H_drive_copy\My Papers\PBI Optimization 2025\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4109E2D9-E9B7-4101-9230-98CC77D9D3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415BDC6A-00C8-4E85-A363-3CFD9D0BDA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="1725" windowWidth="36450" windowHeight="27660" xr2:uid="{7D6FEA02-49A5-4E45-A1B8-67DB04D8BBEF}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="45315" windowHeight="30690" xr2:uid="{7D6FEA02-49A5-4E45-A1B8-67DB04D8BBEF}"/>
   </bookViews>
   <sheets>
     <sheet name="n(E)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -211,15 +211,6 @@
   </si>
   <si>
     <t>Mu Diff</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
   </si>
 </sst>
 </file>
@@ -750,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -786,8 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6918,12 +6907,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.15043</cdr:x>
-      <cdr:y>0.02632</cdr:y>
+      <cdr:x>0.11911</cdr:x>
+      <cdr:y>0.03022</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.31669</cdr:x>
-      <cdr:y>0.16764</cdr:y>
+      <cdr:x>0.25503</cdr:x>
+      <cdr:y>0.1462</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6938,8 +6927,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1176339" y="128586"/>
-          <a:ext cx="1300161" cy="690564"/>
+          <a:off x="1014264" y="147658"/>
+          <a:ext cx="1157437" cy="566718"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6970,7 +6959,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="2400" b="0" i="0" baseline="0">
+            <a:rPr lang="en-AU" sz="2400" b="0" i="1" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
               <a:ea typeface="+mn-ea"/>
@@ -7419,10 +7408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9099A9AC-61F7-4040-B746-9600AD45AC4C}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="AB74" sqref="AB74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,7 +7430,7 @@
     <col min="23" max="23" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -7490,14 +7479,11 @@
       <c r="Q1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="7" t="s">
@@ -7540,11 +7526,11 @@
         <v>3.9369999999999998</v>
       </c>
       <c r="Q2" s="10">
-        <f>$P$5*POWER($O$5/O2,3)</f>
+        <f t="shared" ref="Q2:Q7" si="0">$P$5*POWER($O$5/O2,3)</f>
         <v>3.4020000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -7577,19 +7563,19 @@
         <v>103.84983053793347</v>
       </c>
       <c r="J3" s="3">
-        <f>$G$33*POWER($A$33/A3,1)</f>
+        <f t="shared" ref="J3:J43" si="1">$G$33*POWER($A$33/A3,1)</f>
         <v>8.8171999999999995E-5</v>
       </c>
       <c r="K3" s="3">
-        <f>$G$23*POWER($A$23/A3,3)</f>
+        <f t="shared" ref="K3:K43" si="2">$G$23*POWER($A$23/A3,3)</f>
         <v>7.5729599999999997E-4</v>
       </c>
       <c r="L3" s="3">
-        <f>$I$33*POWER(A3/$A$33,2)</f>
+        <f t="shared" ref="L3:L43" si="3">$I$33*POWER(A3/$A$33,2)</f>
         <v>71.598408385093123</v>
       </c>
       <c r="M3" s="3">
-        <f>$H$23*POWER($A$23/A3,3)</f>
+        <f t="shared" ref="M3:M43" si="4">$H$23*POWER($A$23/A3,3)</f>
         <v>2.6767800000000003E-4</v>
       </c>
       <c r="O3" s="2">
@@ -7599,15 +7585,15 @@
         <v>1.0940000000000001</v>
       </c>
       <c r="Q3" s="10">
-        <f>$P$5*POWER($O$5/O3,3)</f>
+        <f t="shared" si="0"/>
         <v>1.008</v>
       </c>
       <c r="R3" s="10">
-        <f>$P$5*POWER($O$5/A3,3)</f>
+        <f t="shared" ref="R3:R43" si="5">$P$5*POWER($O$5/A3,3)</f>
         <v>3.4020000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>11</v>
       </c>
@@ -7628,7 +7614,7 @@
         <v>109.72</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G43" si="0">C4/10000</f>
+        <f t="shared" ref="G4:G43" si="6">C4/10000</f>
         <v>2.1494E-4</v>
       </c>
       <c r="H4" s="4">
@@ -7636,23 +7622,23 @@
         <v>1.7265000000000002E-4</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I43" si="1">2*(F4-D4)/(E4-C4)*10</f>
+        <f t="shared" ref="I4:I43" si="7">2*(F4-D4)/(E4-C4)*10</f>
         <v>125.58355053576592</v>
       </c>
       <c r="J4" s="3">
-        <f>$G$33*POWER($A$33/A4,1)</f>
+        <f t="shared" si="1"/>
         <v>8.0156363636363625E-5</v>
       </c>
       <c r="K4" s="3">
-        <f>$G$23*POWER($A$23/A4,3)</f>
+        <f t="shared" si="2"/>
         <v>5.6896769346356107E-4</v>
       </c>
       <c r="L4" s="3">
-        <f>$I$33*POWER(A4/$A$33,2)</f>
+        <f t="shared" si="3"/>
         <v>86.634074145962686</v>
       </c>
       <c r="M4" s="3">
-        <f>$H$23*POWER($A$23/A4,3)</f>
+        <f t="shared" si="4"/>
         <v>2.011104432757325E-4</v>
       </c>
       <c r="O4" s="2">
@@ -7662,21 +7648,21 @@
         <v>0.43940000000000001</v>
       </c>
       <c r="Q4" s="10">
-        <f>$P$5*POWER($O$5/O4,3)</f>
+        <f t="shared" si="0"/>
         <v>0.42525000000000002</v>
       </c>
       <c r="R4" s="10">
-        <f>$P$5*POWER($O$5/A4,3)</f>
+        <f t="shared" si="5"/>
         <v>2.5559729526671671</v>
       </c>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B43" si="2">12.4/A5</f>
+        <f t="shared" ref="B5:B43" si="8">12.4/A5</f>
         <v>1.0333333333333334</v>
       </c>
       <c r="C5" s="3">
@@ -7692,31 +7678,31 @@
         <v>100.54</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.6954000000000001E-4</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H4:H43" si="3">(E5-C5)/10000</f>
+        <f t="shared" ref="H5:H43" si="9">(E5-C5)/10000</f>
         <v>1.3260999999999999E-4</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="7"/>
+        <v>149.73229771510461</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>149.73229771510461</v>
-      </c>
-      <c r="J5" s="3">
-        <f>$G$33*POWER($A$33/A5,1)</f>
         <v>7.3476666666666667E-5</v>
       </c>
       <c r="K5" s="3">
-        <f>$G$23*POWER($A$23/A5,3)</f>
+        <f t="shared" si="2"/>
         <v>4.3825E-4</v>
       </c>
       <c r="L5" s="3">
-        <f>$I$33*POWER(A5/$A$33,2)</f>
+        <f t="shared" si="3"/>
         <v>103.10170807453409</v>
       </c>
       <c r="M5" s="3">
-        <f>$H$23*POWER($A$23/A5,3)</f>
+        <f t="shared" si="4"/>
         <v>1.5490625000000001E-4</v>
       </c>
       <c r="O5" s="2">
@@ -7726,20 +7712,20 @@
         <v>0.126</v>
       </c>
       <c r="Q5" s="10">
-        <f>$P$5*POWER($O$5/O5,3)</f>
+        <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
       <c r="R5" s="10">
-        <f>$P$5*POWER($O$5/A5,3)</f>
+        <f t="shared" si="5"/>
         <v>1.96875</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.9538461538461539</v>
       </c>
       <c r="C6" s="3">
@@ -7755,31 +7741,31 @@
         <v>92.772999999999996</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.3726999999999999E-4</v>
       </c>
       <c r="H6" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0390999999999999E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="7"/>
+        <v>176.15243961120203</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7824615384615383E-5</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>3.446954938552571E-4</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
-        <v>1.0390999999999999E-4</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>176.15243961120203</v>
-      </c>
-      <c r="J6" s="3">
-        <f>$G$33*POWER($A$33/A6,1)</f>
-        <v>6.7824615384615383E-5</v>
-      </c>
-      <c r="K6" s="3">
-        <f>$G$23*POWER($A$23/A6,3)</f>
-        <v>3.446954938552571E-4</v>
-      </c>
-      <c r="L6" s="3">
-        <f>$I$33*POWER(A6/$A$33,2)</f>
         <v>121.00131017080739</v>
       </c>
       <c r="M6" s="3">
-        <f>$H$23*POWER($A$23/A6,3)</f>
+        <f t="shared" si="4"/>
         <v>1.218379608557123E-4</v>
       </c>
       <c r="O6" s="2">
@@ -7789,20 +7775,20 @@
         <v>5.7919999999999999E-2</v>
       </c>
       <c r="Q6" s="10">
-        <f>$P$5*POWER($O$5/O6,3)</f>
+        <f t="shared" si="0"/>
         <v>5.3156250000000002E-2</v>
       </c>
       <c r="R6" s="10">
-        <f>$P$5*POWER($O$5/A6,3)</f>
+        <f t="shared" si="5"/>
         <v>1.5484751934456074</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.88571428571428579</v>
       </c>
       <c r="C7" s="3">
@@ -7818,31 +7804,31 @@
         <v>86.122</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.1364E-4</v>
       </c>
       <c r="H7" s="4">
+        <f t="shared" si="9"/>
+        <v>8.2809999999999988E-5</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="7"/>
+        <v>205.02354788069087</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2979999999999997E-5</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.759825072886297E-4</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="3"/>
-        <v>8.2809999999999988E-5</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="1"/>
-        <v>205.02354788069087</v>
-      </c>
-      <c r="J7" s="3">
-        <f>$G$33*POWER($A$33/A7,1)</f>
-        <v>6.2979999999999997E-5</v>
-      </c>
-      <c r="K7" s="3">
-        <f>$G$23*POWER($A$23/A7,3)</f>
-        <v>2.759825072886297E-4</v>
-      </c>
-      <c r="L7" s="3">
-        <f>$I$33*POWER(A7/$A$33,2)</f>
         <v>140.33288043478251</v>
       </c>
       <c r="M7" s="3">
-        <f>$H$23*POWER($A$23/A7,3)</f>
+        <f t="shared" si="4"/>
         <v>9.7550291545189493E-5</v>
       </c>
       <c r="O7" s="2">
@@ -7852,20 +7838,20 @@
         <v>3.6659999999999998E-2</v>
       </c>
       <c r="Q7" s="10">
-        <f>$P$5*POWER($O$5/O7,3)</f>
+        <f t="shared" si="0"/>
         <v>2.7216000000000001E-2</v>
       </c>
       <c r="R7" s="10">
-        <f>$P$5*POWER($O$5/A7,3)</f>
+        <f t="shared" si="5"/>
         <v>1.2397959183673468</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.82666666666666666</v>
       </c>
       <c r="C8" s="3">
@@ -7881,44 +7867,44 @@
         <v>80.361999999999995</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>9.5795E-5</v>
       </c>
       <c r="H8" s="4">
+        <f t="shared" si="9"/>
+        <v>6.6765000000000002E-5</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="7"/>
+        <v>237.13023290646288</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8781333333333326E-5</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.24384E-4</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
-        <v>6.6765000000000002E-5</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="1"/>
-        <v>237.13023290646288</v>
-      </c>
-      <c r="J8" s="3">
-        <f>$G$33*POWER($A$33/A8,1)</f>
-        <v>5.8781333333333326E-5</v>
-      </c>
-      <c r="K8" s="3">
-        <f>$G$23*POWER($A$23/A8,3)</f>
-        <v>2.24384E-4</v>
-      </c>
-      <c r="L8" s="3">
-        <f>$I$33*POWER(A8/$A$33,2)</f>
         <v>161.09641886645952</v>
       </c>
       <c r="M8" s="3">
-        <f>$H$23*POWER($A$23/A8,3)</f>
+        <f t="shared" si="4"/>
         <v>7.9312000000000002E-5</v>
       </c>
       <c r="R8" s="10">
-        <f>$P$5*POWER($O$5/A8,3)</f>
+        <f t="shared" si="5"/>
         <v>1.008</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>16</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="C9" s="3">
@@ -7934,44 +7920,44 @@
         <v>75.325000000000003</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8.2307999999999999E-5</v>
       </c>
       <c r="H9" s="4">
+        <f t="shared" si="9"/>
+        <v>5.4902000000000004E-5</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="7"/>
+        <v>270.15409274707645</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5107499999999994E-5</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8488671874999999E-4</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
-        <v>5.4902000000000004E-5</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>270.15409274707645</v>
-      </c>
-      <c r="J9" s="3">
-        <f>$G$33*POWER($A$33/A9,1)</f>
-        <v>5.5107499999999994E-5</v>
-      </c>
-      <c r="K9" s="3">
-        <f>$G$23*POWER($A$23/A9,3)</f>
-        <v>1.8488671874999999E-4</v>
-      </c>
-      <c r="L9" s="3">
-        <f>$I$33*POWER(A9/$A$33,2)</f>
         <v>183.29192546583843</v>
       </c>
       <c r="M9" s="3">
-        <f>$H$23*POWER($A$23/A9,3)</f>
+        <f t="shared" si="4"/>
         <v>6.5351074218750007E-5</v>
       </c>
       <c r="R9" s="10">
-        <f>$P$5*POWER($O$5/A9,3)</f>
+        <f t="shared" si="5"/>
         <v>0.83056640625</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>17</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.72941176470588243</v>
       </c>
       <c r="C10" s="3">
@@ -7987,44 +7973,44 @@
         <v>70.882999999999996</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.1847000000000005E-5</v>
       </c>
       <c r="H10" s="4">
+        <f t="shared" si="9"/>
+        <v>4.5823000000000005E-5</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="7"/>
+        <v>304.47591820701393</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1865882352941179E-5</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5414125788723793E-4</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
-        <v>4.5823000000000005E-5</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>304.47591820701393</v>
-      </c>
-      <c r="J10" s="3">
-        <f>$G$33*POWER($A$33/A10,1)</f>
-        <v>5.1865882352941179E-5</v>
-      </c>
-      <c r="K10" s="3">
-        <f>$G$23*POWER($A$23/A10,3)</f>
-        <v>1.5414125788723793E-4</v>
-      </c>
-      <c r="L10" s="3">
-        <f>$I$33*POWER(A10/$A$33,2)</f>
         <v>206.91940023291909</v>
       </c>
       <c r="M10" s="3">
-        <f>$H$23*POWER($A$23/A10,3)</f>
+        <f t="shared" si="4"/>
         <v>5.448361489924689E-5</v>
       </c>
       <c r="R10" s="10">
-        <f>$P$5*POWER($O$5/A10,3)</f>
+        <f t="shared" si="5"/>
         <v>0.69244860573987377</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.68888888888888888</v>
       </c>
       <c r="C11" s="3">
@@ -8040,44 +8026,44 @@
         <v>66.936000000000007</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.3585000000000009E-5</v>
       </c>
       <c r="H11" s="4">
+        <f t="shared" si="9"/>
+        <v>3.8765000000000006E-5</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="7"/>
+        <v>339.73945569457021</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8984444444444447E-5</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2985185185185189E-4</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
-        <v>3.8765000000000006E-5</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>339.73945569457021</v>
-      </c>
-      <c r="J11" s="3">
-        <f>$G$33*POWER($A$33/A11,1)</f>
-        <v>4.8984444444444447E-5</v>
-      </c>
-      <c r="K11" s="3">
-        <f>$G$23*POWER($A$23/A11,3)</f>
-        <v>1.2985185185185189E-4</v>
-      </c>
-      <c r="L11" s="3">
-        <f>$I$33*POWER(A11/$A$33,2)</f>
         <v>231.97884316770174</v>
       </c>
       <c r="M11" s="3">
-        <f>$H$23*POWER($A$23/A11,3)</f>
+        <f t="shared" si="4"/>
         <v>4.5898148148148161E-5</v>
       </c>
       <c r="R11" s="10">
-        <f>$P$5*POWER($O$5/A11,3)</f>
+        <f t="shared" si="5"/>
         <v>0.58333333333333348</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>19</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.65263157894736845</v>
       </c>
       <c r="C12" s="3">
@@ -8093,44 +8079,44 @@
         <v>63.405000000000001</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6955999999999995E-5</v>
       </c>
       <c r="H12" s="4">
+        <f t="shared" si="9"/>
+        <v>3.3170000000000003E-5</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="7"/>
+        <v>375.94211637021402</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6406315789473681E-5</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1040909753608398E-4</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>3.3170000000000003E-5</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>375.94211637021402</v>
-      </c>
-      <c r="J12" s="3">
-        <f>$G$33*POWER($A$33/A12,1)</f>
-        <v>4.6406315789473681E-5</v>
-      </c>
-      <c r="K12" s="3">
-        <f>$G$23*POWER($A$23/A12,3)</f>
-        <v>1.1040909753608398E-4</v>
-      </c>
-      <c r="L12" s="3">
-        <f>$I$33*POWER(A12/$A$33,2)</f>
         <v>258.47025427018616</v>
       </c>
       <c r="M12" s="3">
-        <f>$H$23*POWER($A$23/A12,3)</f>
+        <f t="shared" si="4"/>
         <v>3.9025805511007437E-5</v>
       </c>
       <c r="R12" s="10">
-        <f>$P$5*POWER($O$5/A12,3)</f>
+        <f t="shared" si="5"/>
         <v>0.49599066919376006</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>20</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.62</v>
       </c>
       <c r="C13" s="3">
@@ -8146,44 +8132,44 @@
         <v>60.228000000000002</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1566000000000001E-5</v>
       </c>
       <c r="H13" s="4">
+        <f t="shared" si="9"/>
+        <v>2.8683000000000003E-5</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="7"/>
+        <v>412.8577903287661</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4085999999999998E-5</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4661999999999996E-5</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>2.8683000000000003E-5</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>412.8577903287661</v>
-      </c>
-      <c r="J13" s="3">
-        <f>$G$33*POWER($A$33/A13,1)</f>
-        <v>4.4085999999999998E-5</v>
-      </c>
-      <c r="K13" s="3">
-        <f>$G$23*POWER($A$23/A13,3)</f>
-        <v>9.4661999999999996E-5</v>
-      </c>
-      <c r="L13" s="3">
-        <f>$I$33*POWER(A13/$A$33,2)</f>
         <v>286.39363354037249</v>
       </c>
       <c r="M13" s="3">
-        <f>$H$23*POWER($A$23/A13,3)</f>
+        <f t="shared" si="4"/>
         <v>3.3459750000000004E-5</v>
       </c>
       <c r="R13" s="10">
-        <f>$P$5*POWER($O$5/A13,3)</f>
+        <f t="shared" si="5"/>
         <v>0.42525000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>21</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.59047619047619049</v>
       </c>
       <c r="C14" s="3">
@@ -8199,44 +8185,44 @@
         <v>57.354999999999997</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.7127000000000005E-5</v>
       </c>
       <c r="H14" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5032999999999999E-5</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="7"/>
+        <v>450.36551751687716</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1986666666666662E-5</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1772594752186589E-5</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>2.5032999999999999E-5</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="1"/>
-        <v>450.36551751687716</v>
-      </c>
-      <c r="J14" s="3">
-        <f>$G$33*POWER($A$33/A14,1)</f>
-        <v>4.1986666666666662E-5</v>
-      </c>
-      <c r="K14" s="3">
-        <f>$G$23*POWER($A$23/A14,3)</f>
-        <v>8.1772594752186589E-5</v>
-      </c>
-      <c r="L14" s="3">
-        <f>$I$33*POWER(A14/$A$33,2)</f>
         <v>315.7489809782607</v>
       </c>
       <c r="M14" s="3">
-        <f>$H$23*POWER($A$23/A14,3)</f>
+        <f t="shared" si="4"/>
         <v>2.890379008746356E-5</v>
       </c>
       <c r="R14" s="10">
-        <f>$P$5*POWER($O$5/A14,3)</f>
+        <f t="shared" si="5"/>
         <v>0.36734693877551022</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>22</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.5636363636363636</v>
       </c>
       <c r="C15" s="3">
@@ -8252,44 +8238,44 @@
         <v>54.743000000000002</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.3433999999999998E-5</v>
       </c>
       <c r="H15" s="4">
+        <f t="shared" si="9"/>
+        <v>2.2030999999999996E-5</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="7"/>
+        <v>488.31192410694081</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0078181818181812E-5</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1120961682945134E-5</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
-        <v>2.2030999999999996E-5</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="1"/>
-        <v>488.31192410694081</v>
-      </c>
-      <c r="J15" s="3">
-        <f>$G$33*POWER($A$33/A15,1)</f>
-        <v>4.0078181818181812E-5</v>
-      </c>
-      <c r="K15" s="3">
-        <f>$G$23*POWER($A$23/A15,3)</f>
-        <v>7.1120961682945134E-5</v>
-      </c>
-      <c r="L15" s="3">
-        <f>$I$33*POWER(A15/$A$33,2)</f>
         <v>346.53629658385074</v>
       </c>
       <c r="M15" s="3">
-        <f>$H$23*POWER($A$23/A15,3)</f>
+        <f t="shared" si="4"/>
         <v>2.5138805409466563E-5</v>
       </c>
       <c r="R15" s="10">
-        <f>$P$5*POWER($O$5/A15,3)</f>
+        <f t="shared" si="5"/>
         <v>0.31949661908339588</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>23</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.53913043478260869</v>
       </c>
       <c r="C16" s="3">
@@ -8305,35 +8291,35 @@
         <v>52.36</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.0330999999999997E-5</v>
       </c>
       <c r="H16" s="4">
+        <f t="shared" si="9"/>
+        <v>1.9538000000000005E-5</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="7"/>
+        <v>526.56361961306141</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8335652173913044E-5</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2241801594476861E-5</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>1.9538000000000005E-5</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="1"/>
-        <v>526.56361961306141</v>
-      </c>
-      <c r="J16" s="3">
-        <f>$G$33*POWER($A$33/A16,1)</f>
-        <v>3.8335652173913044E-5</v>
-      </c>
-      <c r="K16" s="3">
-        <f>$G$23*POWER($A$23/A16,3)</f>
-        <v>6.2241801594476861E-5</v>
-      </c>
-      <c r="L16" s="3">
-        <f>$I$33*POWER(A16/$A$33,2)</f>
         <v>378.75558035714255</v>
       </c>
       <c r="M16" s="3">
-        <f>$H$23*POWER($A$23/A16,3)</f>
+        <f t="shared" si="4"/>
         <v>2.2000328758116216E-5</v>
       </c>
       <c r="R16" s="10">
-        <f>$P$5*POWER($O$5/A16,3)</f>
+        <f t="shared" si="5"/>
         <v>0.27960877784170296</v>
       </c>
     </row>
@@ -8342,7 +8328,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.51666666666666672</v>
       </c>
       <c r="C17" s="3">
@@ -8358,35 +8344,35 @@
         <v>50.174999999999997</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.7702999999999995E-5</v>
       </c>
       <c r="H17" s="4">
+        <f t="shared" si="9"/>
+        <v>1.7446000000000005E-5</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="7"/>
+        <v>564.94325346784319</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6738333333333334E-5</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>5.478125E-5</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>1.7446000000000005E-5</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="1"/>
-        <v>564.94325346784319</v>
-      </c>
-      <c r="J17" s="3">
-        <f>$G$33*POWER($A$33/A17,1)</f>
-        <v>3.6738333333333334E-5</v>
-      </c>
-      <c r="K17" s="3">
-        <f>$G$23*POWER($A$23/A17,3)</f>
-        <v>5.478125E-5</v>
-      </c>
-      <c r="L17" s="3">
-        <f>$I$33*POWER(A17/$A$33,2)</f>
         <v>412.40683229813635</v>
       </c>
       <c r="M17" s="3">
-        <f>$H$23*POWER($A$23/A17,3)</f>
+        <f t="shared" si="4"/>
         <v>1.9363281250000002E-5</v>
       </c>
       <c r="R17" s="10">
-        <f>$P$5*POWER($O$5/A17,3)</f>
+        <f t="shared" si="5"/>
         <v>0.24609375</v>
       </c>
     </row>
@@ -8395,7 +8381,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.496</v>
       </c>
       <c r="C18" s="3">
@@ -8411,35 +8397,35 @@
         <v>48.164999999999999</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.5460000000000003E-5</v>
       </c>
       <c r="H18" s="4">
+        <f t="shared" si="9"/>
+        <v>1.5674999999999995E-5</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="7"/>
+        <v>603.50877192982443</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5268799999999997E-5</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8466944000000002E-5</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="3"/>
-        <v>1.5674999999999995E-5</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="1"/>
-        <v>603.50877192982443</v>
-      </c>
-      <c r="J18" s="3">
-        <f>$G$33*POWER($A$33/A18,1)</f>
-        <v>3.5268799999999997E-5</v>
-      </c>
-      <c r="K18" s="3">
-        <f>$G$23*POWER($A$23/A18,3)</f>
-        <v>4.8466944000000002E-5</v>
-      </c>
-      <c r="L18" s="3">
-        <f>$I$33*POWER(A18/$A$33,2)</f>
         <v>447.49005240683204</v>
       </c>
       <c r="M18" s="3">
-        <f>$H$23*POWER($A$23/A18,3)</f>
+        <f t="shared" si="4"/>
         <v>1.7131392000000001E-5</v>
       </c>
       <c r="R18" s="10">
-        <f>$P$5*POWER($O$5/A18,3)</f>
+        <f t="shared" si="5"/>
         <v>0.217728</v>
       </c>
     </row>
@@ -8448,7 +8434,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.47692307692307695</v>
       </c>
       <c r="C19" s="6">
@@ -8464,35 +8450,35 @@
         <v>46.31</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.3532000000000004E-5</v>
       </c>
       <c r="H19" s="8">
+        <f t="shared" si="9"/>
+        <v>1.4166000000000001E-5</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="7"/>
+        <v>641.95962162925366</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3912307692307692E-5</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3086936731907137E-5</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>1.4166000000000001E-5</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="1"/>
-        <v>641.95962162925366</v>
-      </c>
-      <c r="J19" s="3">
-        <f>$G$33*POWER($A$33/A19,1)</f>
-        <v>3.3912307692307692E-5</v>
-      </c>
-      <c r="K19" s="3">
-        <f>$G$23*POWER($A$23/A19,3)</f>
-        <v>4.3086936731907137E-5</v>
-      </c>
-      <c r="L19" s="3">
-        <f>$I$33*POWER(A19/$A$33,2)</f>
         <v>484.00524068322954</v>
       </c>
       <c r="M19" s="3">
-        <f>$H$23*POWER($A$23/A19,3)</f>
+        <f t="shared" si="4"/>
         <v>1.5229745106964038E-5</v>
       </c>
       <c r="R19" s="10">
-        <f>$P$5*POWER($O$5/A19,3)</f>
+        <f t="shared" si="5"/>
         <v>0.19355939918070092</v>
       </c>
     </row>
@@ -8501,7 +8487,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.45925925925925926</v>
       </c>
       <c r="C20" s="3">
@@ -8517,35 +8503,35 @@
         <v>44.593000000000004</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.1866000000000003E-5</v>
       </c>
       <c r="H20" s="4">
+        <f t="shared" si="9"/>
+        <v>1.2867000000000001E-5</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="7"/>
+        <v>680.50050516825991</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2656296296296296E-5</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8474622770919074E-5</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="3"/>
-        <v>1.2867000000000001E-5</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="1"/>
-        <v>680.50050516825991</v>
-      </c>
-      <c r="J20" s="3">
-        <f>$G$33*POWER($A$33/A20,1)</f>
-        <v>3.2656296296296296E-5</v>
-      </c>
-      <c r="K20" s="3">
-        <f>$G$23*POWER($A$23/A20,3)</f>
-        <v>3.8474622770919074E-5</v>
-      </c>
-      <c r="L20" s="3">
-        <f>$I$33*POWER(A20/$A$33,2)</f>
         <v>521.95239712732894</v>
       </c>
       <c r="M20" s="3">
-        <f>$H$23*POWER($A$23/A20,3)</f>
+        <f t="shared" si="4"/>
         <v>1.359945130315501E-5</v>
       </c>
       <c r="R20" s="10">
-        <f>$P$5*POWER($O$5/A20,3)</f>
+        <f t="shared" si="5"/>
         <v>0.17283950617283955</v>
       </c>
     </row>
@@ -8554,7 +8540,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.44285714285714289</v>
       </c>
       <c r="C21" s="3">
@@ -8570,35 +8556,35 @@
         <v>42.997999999999998</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.0419000000000001E-5</v>
       </c>
       <c r="H21" s="4">
+        <f t="shared" si="9"/>
+        <v>1.1745E-5</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="7"/>
+        <v>718.77394636015265</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1489999999999998E-5</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4497813411078712E-5</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="3"/>
-        <v>1.1745E-5</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="1"/>
-        <v>718.77394636015265</v>
-      </c>
-      <c r="J21" s="3">
-        <f>$G$33*POWER($A$33/A21,1)</f>
-        <v>3.1489999999999998E-5</v>
-      </c>
-      <c r="K21" s="3">
-        <f>$G$23*POWER($A$23/A21,3)</f>
-        <v>3.4497813411078712E-5</v>
-      </c>
-      <c r="L21" s="3">
-        <f>$I$33*POWER(A21/$A$33,2)</f>
         <v>561.33152173913004</v>
       </c>
       <c r="M21" s="3">
-        <f>$H$23*POWER($A$23/A21,3)</f>
+        <f t="shared" si="4"/>
         <v>1.2193786443148687E-5</v>
       </c>
       <c r="R21" s="10">
-        <f>$P$5*POWER($O$5/A21,3)</f>
+        <f t="shared" si="5"/>
         <v>0.15497448979591835</v>
       </c>
     </row>
@@ -8607,7 +8593,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.42758620689655175</v>
       </c>
       <c r="C22" s="3">
@@ -8623,35 +8609,35 @@
         <v>41.514000000000003</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.9154999999999998E-5</v>
       </c>
       <c r="H22" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0767999999999999E-5</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="7"/>
+        <v>756.87221396731104</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0404137931034482E-5</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1050719586698925E-5</v>
+      </c>
+      <c r="L22" s="3">
         <f t="shared" si="3"/>
-        <v>1.0767999999999999E-5</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>756.87221396731104</v>
-      </c>
-      <c r="J22" s="3">
-        <f>$G$33*POWER($A$33/A22,1)</f>
-        <v>3.0404137931034482E-5</v>
-      </c>
-      <c r="K22" s="3">
-        <f>$G$23*POWER($A$23/A22,3)</f>
-        <v>3.1050719586698925E-5</v>
-      </c>
-      <c r="L22" s="3">
-        <f>$I$33*POWER(A22/$A$33,2)</f>
         <v>602.1426145186332</v>
       </c>
       <c r="M22" s="3">
-        <f>$H$23*POWER($A$23/A22,3)</f>
+        <f t="shared" si="4"/>
         <v>1.0975357743244908E-5</v>
       </c>
       <c r="R22" s="10">
-        <f>$P$5*POWER($O$5/A22,3)</f>
+        <f t="shared" si="5"/>
         <v>0.13948911394481123</v>
       </c>
     </row>
@@ -8660,7 +8646,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.41333333333333333</v>
       </c>
       <c r="C23" s="3">
@@ -8676,35 +8662,35 @@
         <v>40.128999999999998</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.8048E-5</v>
       </c>
       <c r="H23" s="4">
+        <f t="shared" si="9"/>
+        <v>9.9140000000000003E-6</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="7"/>
+        <v>794.63385111962884</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9390666666666663E-5</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8048E-5</v>
+      </c>
+      <c r="L23" s="3">
         <f t="shared" si="3"/>
+        <v>644.38567546583806</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="4"/>
         <v>9.9140000000000003E-6</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="1"/>
-        <v>794.63385111962884</v>
-      </c>
-      <c r="J23" s="3">
-        <f>$G$33*POWER($A$33/A23,1)</f>
-        <v>2.9390666666666663E-5</v>
-      </c>
-      <c r="K23" s="3">
-        <f>$G$23*POWER($A$23/A23,3)</f>
-        <v>2.8048E-5</v>
-      </c>
-      <c r="L23" s="3">
-        <f>$I$33*POWER(A23/$A$33,2)</f>
-        <v>644.38567546583806</v>
-      </c>
-      <c r="M23" s="3">
-        <f>$H$23*POWER($A$23/A23,3)</f>
-        <v>9.9140000000000003E-6</v>
-      </c>
       <c r="R23" s="10">
-        <f>$P$5*POWER($O$5/A23,3)</f>
+        <f t="shared" si="5"/>
         <v>0.126</v>
       </c>
     </row>
@@ -8713,7 +8699,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="C24" s="3">
@@ -8729,35 +8715,35 @@
         <v>38.832999999999998</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.7073999999999999E-5</v>
       </c>
       <c r="H24" s="4">
+        <f t="shared" si="9"/>
+        <v>9.1600000000000021E-6</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="7"/>
+        <v>832.09606986899541</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8442580645161289E-5</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5420294719881845E-5</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="3"/>
-        <v>9.1600000000000021E-6</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="1"/>
-        <v>832.09606986899541</v>
-      </c>
-      <c r="J24" s="3">
-        <f>$G$33*POWER($A$33/A24,1)</f>
-        <v>2.8442580645161289E-5</v>
-      </c>
-      <c r="K24" s="3">
-        <f>$G$23*POWER($A$23/A24,3)</f>
-        <v>2.5420294719881845E-5</v>
-      </c>
-      <c r="L24" s="3">
-        <f>$I$33*POWER(A24/$A$33,2)</f>
         <v>688.06070458074498</v>
       </c>
       <c r="M24" s="3">
-        <f>$H$23*POWER($A$23/A24,3)</f>
+        <f t="shared" si="4"/>
         <v>8.9851968715383853E-6</v>
       </c>
       <c r="R24" s="10">
-        <f>$P$5*POWER($O$5/A24,3)</f>
+        <f t="shared" si="5"/>
         <v>0.11419556241817999</v>
       </c>
     </row>
@@ -8766,7 +8752,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="C25" s="6">
@@ -8782,35 +8768,35 @@
         <v>37.619</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.6216000000000001E-5</v>
       </c>
       <c r="H25" s="8">
+        <f t="shared" si="9"/>
+        <v>8.494000000000002E-6</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="7"/>
+        <v>869.31951966093709</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7553749999999997E-5</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3110839843749999E-5</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="3"/>
-        <v>8.494000000000002E-6</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="1"/>
-        <v>869.31951966093709</v>
-      </c>
-      <c r="J25" s="3">
-        <f>$G$33*POWER($A$33/A25,1)</f>
-        <v>2.7553749999999997E-5</v>
-      </c>
-      <c r="K25" s="3">
-        <f>$G$23*POWER($A$23/A25,3)</f>
-        <v>2.3110839843749999E-5</v>
-      </c>
-      <c r="L25" s="3">
-        <f>$I$33*POWER(A25/$A$33,2)</f>
         <v>733.16770186335373</v>
       </c>
       <c r="M25" s="3">
-        <f>$H$23*POWER($A$23/A25,3)</f>
+        <f t="shared" si="4"/>
         <v>8.1688842773437508E-6</v>
       </c>
       <c r="R25" s="10">
-        <f>$P$5*POWER($O$5/A25,3)</f>
+        <f t="shared" si="5"/>
         <v>0.10382080078125</v>
       </c>
     </row>
@@ -8819,7 +8805,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.37575757575757579</v>
       </c>
       <c r="C26" s="3">
@@ -8835,35 +8821,35 @@
         <v>36.478000000000002</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.5457E-5</v>
       </c>
       <c r="H26" s="4">
+        <f t="shared" si="9"/>
+        <v>7.9019999999999982E-6</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="7"/>
+        <v>906.09972158947085</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6718787878787877E-5</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1072877535687451E-5</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="3"/>
-        <v>7.9019999999999982E-6</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="1"/>
-        <v>906.09972158947085</v>
-      </c>
-      <c r="J26" s="3">
-        <f>$G$33*POWER($A$33/A26,1)</f>
-        <v>2.6718787878787877E-5</v>
-      </c>
-      <c r="K26" s="3">
-        <f>$G$23*POWER($A$23/A26,3)</f>
-        <v>2.1072877535687451E-5</v>
-      </c>
-      <c r="L26" s="3">
-        <f>$I$33*POWER(A26/$A$33,2)</f>
         <v>779.70666731366407</v>
       </c>
       <c r="M26" s="3">
-        <f>$H$23*POWER($A$23/A26,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4485349361382413E-6</v>
       </c>
       <c r="R26" s="10">
-        <f>$P$5*POWER($O$5/A26,3)</f>
+        <f t="shared" si="5"/>
         <v>9.466566491359879E-2</v>
       </c>
     </row>
@@ -8872,7 +8858,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.36470588235294121</v>
       </c>
       <c r="C27" s="3">
@@ -8888,35 +8874,35 @@
         <v>35.404000000000003</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.4784999999999997E-5</v>
       </c>
       <c r="H27" s="4">
+        <f t="shared" si="9"/>
+        <v>7.374E-6</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="7"/>
+        <v>942.2294548413355</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5932941176470589E-5</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9267657235904741E-5</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="3"/>
-        <v>7.374E-6</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="1"/>
-        <v>942.2294548413355</v>
-      </c>
-      <c r="J27" s="3">
-        <f>$G$33*POWER($A$33/A27,1)</f>
-        <v>2.5932941176470589E-5</v>
-      </c>
-      <c r="K27" s="3">
-        <f>$G$23*POWER($A$23/A27,3)</f>
-        <v>1.9267657235904741E-5</v>
-      </c>
-      <c r="L27" s="3">
-        <f>$I$33*POWER(A27/$A$33,2)</f>
         <v>827.67760093167635</v>
       </c>
       <c r="M27" s="3">
-        <f>$H$23*POWER($A$23/A27,3)</f>
+        <f t="shared" si="4"/>
         <v>6.8104518624058613E-6</v>
       </c>
       <c r="R27" s="10">
-        <f>$P$5*POWER($O$5/A27,3)</f>
+        <f t="shared" si="5"/>
         <v>8.6556075717484221E-2</v>
       </c>
     </row>
@@ -8925,7 +8911,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.35428571428571431</v>
       </c>
       <c r="C28" s="3">
@@ -8941,35 +8927,35 @@
         <v>34.392000000000003</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.4188999999999998E-5</v>
       </c>
       <c r="H28" s="4">
+        <f t="shared" si="9"/>
+        <v>6.9000000000000009E-6</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="7"/>
+        <v>977.97101449275419</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5191999999999999E-5</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7662880466472301E-5</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="3"/>
-        <v>6.9000000000000009E-6</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="1"/>
-        <v>977.97101449275419</v>
-      </c>
-      <c r="J28" s="3">
-        <f>$G$33*POWER($A$33/A28,1)</f>
-        <v>2.5191999999999999E-5</v>
-      </c>
-      <c r="K28" s="3">
-        <f>$G$23*POWER($A$23/A28,3)</f>
-        <v>1.7662880466472301E-5</v>
-      </c>
-      <c r="L28" s="3">
-        <f>$I$33*POWER(A28/$A$33,2)</f>
         <v>877.0805027173908</v>
       </c>
       <c r="M28" s="3">
-        <f>$H$23*POWER($A$23/A28,3)</f>
+        <f t="shared" si="4"/>
         <v>6.2432186588921276E-6</v>
       </c>
       <c r="R28" s="10">
-        <f>$P$5*POWER($O$5/A28,3)</f>
+        <f t="shared" si="5"/>
         <v>7.9346938775510203E-2</v>
       </c>
     </row>
@@ -8978,7 +8964,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.34444444444444444</v>
       </c>
       <c r="C29" s="3">
@@ -8994,35 +8980,35 @@
         <v>33.436</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.366E-5</v>
       </c>
       <c r="H29" s="4">
+        <f t="shared" si="9"/>
+        <v>6.472999999999998E-6</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="7"/>
+        <v>1013.7494206704773</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4492222222222224E-5</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6231481481481486E-5</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="3"/>
-        <v>6.472999999999998E-6</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="1"/>
-        <v>1013.7494206704773</v>
-      </c>
-      <c r="J29" s="3">
-        <f>$G$33*POWER($A$33/A29,1)</f>
-        <v>2.4492222222222224E-5</v>
-      </c>
-      <c r="K29" s="3">
-        <f>$G$23*POWER($A$23/A29,3)</f>
-        <v>1.6231481481481486E-5</v>
-      </c>
-      <c r="L29" s="3">
-        <f>$I$33*POWER(A29/$A$33,2)</f>
         <v>927.91537267080696</v>
       </c>
       <c r="M29" s="3">
-        <f>$H$23*POWER($A$23/A29,3)</f>
+        <f t="shared" si="4"/>
         <v>5.7372685185185202E-6</v>
       </c>
       <c r="R29" s="10">
-        <f>$P$5*POWER($O$5/A29,3)</f>
+        <f t="shared" si="5"/>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
@@ -9031,7 +9017,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.33513513513513515</v>
       </c>
       <c r="C30" s="3">
@@ -9047,35 +9033,35 @@
         <v>32.530999999999999</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.319E-5</v>
       </c>
       <c r="H30" s="4">
+        <f t="shared" si="9"/>
+        <v>6.0879999999999991E-6</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="7"/>
+        <v>1048.291721419185</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3830270270270269E-5</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4950664323929484E-5</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="3"/>
-        <v>6.0879999999999991E-6</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="1"/>
-        <v>1048.291721419185</v>
-      </c>
-      <c r="J30" s="3">
-        <f>$G$33*POWER($A$33/A30,1)</f>
-        <v>2.3830270270270269E-5</v>
-      </c>
-      <c r="K30" s="3">
-        <f>$G$23*POWER($A$23/A30,3)</f>
-        <v>1.4950664323929484E-5</v>
-      </c>
-      <c r="L30" s="3">
-        <f>$I$33*POWER(A30/$A$33,2)</f>
         <v>980.18221079192494</v>
       </c>
       <c r="M30" s="3">
-        <f>$H$23*POWER($A$23/A30,3)</f>
+        <f t="shared" si="4"/>
         <v>5.2845438572246468E-6</v>
       </c>
       <c r="R30" s="10">
-        <f>$P$5*POWER($O$5/A30,3)</f>
+        <f t="shared" si="5"/>
         <v>6.7162853138017509E-2</v>
       </c>
     </row>
@@ -9084,7 +9070,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.32631578947368423</v>
       </c>
       <c r="C31" s="3">
@@ -9100,35 +9086,35 @@
         <v>31.675000000000001</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2773999999999999E-5</v>
       </c>
       <c r="H31" s="4">
+        <f t="shared" si="9"/>
+        <v>5.7379999999999983E-6</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="7"/>
+        <v>1082.9557337051237</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3203157894736841E-5</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3801137192010497E-5</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="3"/>
-        <v>5.7379999999999983E-6</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="1"/>
-        <v>1082.9557337051237</v>
-      </c>
-      <c r="J31" s="3">
-        <f>$G$33*POWER($A$33/A31,1)</f>
-        <v>2.3203157894736841E-5</v>
-      </c>
-      <c r="K31" s="3">
-        <f>$G$23*POWER($A$23/A31,3)</f>
-        <v>1.3801137192010497E-5</v>
-      </c>
-      <c r="L31" s="3">
-        <f>$I$33*POWER(A31/$A$33,2)</f>
         <v>1033.8810170807446</v>
       </c>
       <c r="M31" s="3">
-        <f>$H$23*POWER($A$23/A31,3)</f>
+        <f t="shared" si="4"/>
         <v>4.8782256888759296E-6</v>
       </c>
       <c r="R31" s="10">
-        <f>$P$5*POWER($O$5/A31,3)</f>
+        <f t="shared" si="5"/>
         <v>6.1998833649220007E-2</v>
       </c>
     </row>
@@ -9137,7 +9123,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.31794871794871798</v>
       </c>
       <c r="C32" s="3">
@@ -9153,35 +9139,35 @@
         <v>30.861999999999998</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2403999999999998E-5</v>
       </c>
       <c r="H32" s="4">
+        <f t="shared" si="9"/>
+        <v>5.4210000000000011E-6</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="7"/>
+        <v>1116.7681239623673</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2608205128205127E-5</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2766499772416933E-5</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="3"/>
-        <v>5.4210000000000011E-6</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="1"/>
-        <v>1116.7681239623673</v>
-      </c>
-      <c r="J32" s="3">
-        <f>$G$33*POWER($A$33/A32,1)</f>
-        <v>2.2608205128205127E-5</v>
-      </c>
-      <c r="K32" s="3">
-        <f>$G$23*POWER($A$23/A32,3)</f>
-        <v>1.2766499772416933E-5</v>
-      </c>
-      <c r="L32" s="3">
-        <f>$I$33*POWER(A32/$A$33,2)</f>
         <v>1089.0117915372664</v>
       </c>
       <c r="M32" s="3">
-        <f>$H$23*POWER($A$23/A32,3)</f>
+        <f t="shared" si="4"/>
         <v>4.5125170687300874E-6</v>
       </c>
       <c r="R32" s="10">
-        <f>$P$5*POWER($O$5/A32,3)</f>
+        <f t="shared" si="5"/>
         <v>5.7350933090578066E-2</v>
       </c>
     </row>
@@ -9190,7 +9176,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.31</v>
       </c>
       <c r="C33" s="3">
@@ -9206,35 +9192,35 @@
         <v>30.09</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2042999999999999E-5</v>
       </c>
       <c r="H33" s="4">
+        <f t="shared" si="9"/>
+        <v>5.1520000000000042E-6</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="7"/>
+        <v>1145.57453416149</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2042999999999999E-5</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1832749999999999E-5</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="3"/>
-        <v>5.1520000000000042E-6</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="1"/>
         <v>1145.57453416149</v>
       </c>
-      <c r="J33" s="3">
-        <f>$G$33*POWER($A$33/A33,1)</f>
-        <v>2.2042999999999999E-5</v>
-      </c>
-      <c r="K33" s="3">
-        <f>$G$23*POWER($A$23/A33,3)</f>
-        <v>1.1832749999999999E-5</v>
-      </c>
-      <c r="L33" s="3">
-        <f>$I$33*POWER(A33/$A$33,2)</f>
-        <v>1145.57453416149</v>
-      </c>
       <c r="M33" s="3">
-        <f>$H$23*POWER($A$23/A33,3)</f>
+        <f t="shared" si="4"/>
         <v>4.1824687500000005E-6</v>
       </c>
       <c r="R33" s="10">
-        <f>$P$5*POWER($O$5/A33,3)</f>
+        <f t="shared" si="5"/>
         <v>5.3156250000000002E-2</v>
       </c>
     </row>
@@ -9243,7 +9229,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.30243902439024389</v>
       </c>
       <c r="C34" s="3">
@@ -9259,35 +9245,35 @@
         <v>29.356000000000002</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.1733999999999999E-5</v>
       </c>
       <c r="H34" s="4">
+        <f t="shared" si="9"/>
+        <v>4.8969999999999982E-6</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="7"/>
+        <v>1176.2303451092519</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1505365853658534E-5</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0987884679560656E-5</v>
+      </c>
+      <c r="L34" s="3">
         <f t="shared" si="3"/>
-        <v>4.8969999999999982E-6</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="1"/>
-        <v>1176.2303451092519</v>
-      </c>
-      <c r="J34" s="3">
-        <f>$G$33*POWER($A$33/A34,1)</f>
-        <v>2.1505365853658534E-5</v>
-      </c>
-      <c r="K34" s="3">
-        <f>$G$23*POWER($A$23/A34,3)</f>
-        <v>1.0987884679560656E-5</v>
-      </c>
-      <c r="L34" s="3">
-        <f>$I$33*POWER(A34/$A$33,2)</f>
         <v>1203.5692449534154</v>
       </c>
       <c r="M34" s="3">
-        <f>$H$23*POWER($A$23/A34,3)</f>
+        <f t="shared" si="4"/>
         <v>3.8838380174402582E-6</v>
       </c>
       <c r="R34" s="10">
-        <f>$P$5*POWER($O$5/A34,3)</f>
+        <f t="shared" si="5"/>
         <v>4.9360862436702894E-2</v>
       </c>
     </row>
@@ -9296,7 +9282,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.29523809523809524</v>
       </c>
       <c r="C35" s="6">
@@ -9312,35 +9298,35 @@
         <v>28.655999999999999</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.1447E-5</v>
       </c>
       <c r="H35" s="8">
+        <f t="shared" si="9"/>
+        <v>4.6710000000000032E-6</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="7"/>
+        <v>1203.1684864054794</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0993333333333331E-5</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0221574344023324E-5</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="3"/>
-        <v>4.6710000000000032E-6</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" si="1"/>
-        <v>1203.1684864054794</v>
-      </c>
-      <c r="J35" s="3">
-        <f>$G$33*POWER($A$33/A35,1)</f>
-        <v>2.0993333333333331E-5</v>
-      </c>
-      <c r="K35" s="3">
-        <f>$G$23*POWER($A$23/A35,3)</f>
-        <v>1.0221574344023324E-5</v>
-      </c>
-      <c r="L35" s="3">
-        <f>$I$33*POWER(A35/$A$33,2)</f>
         <v>1262.9959239130428</v>
       </c>
       <c r="M35" s="3">
-        <f>$H$23*POWER($A$23/A35,3)</f>
+        <f t="shared" si="4"/>
         <v>3.612973760932945E-6</v>
       </c>
       <c r="R35" s="10">
-        <f>$P$5*POWER($O$5/A35,3)</f>
+        <f t="shared" si="5"/>
         <v>4.5918367346938778E-2</v>
       </c>
     </row>
@@ -9349,7 +9335,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.28837209302325584</v>
       </c>
       <c r="C36" s="3">
@@ -9365,35 +9351,35 @@
         <v>27.99</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.1182000000000001E-5</v>
       </c>
       <c r="H36" s="4">
+        <f t="shared" si="9"/>
+        <v>4.4700000000000021E-6</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="7"/>
+        <v>1228.1879194630856</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0505116279069765E-5</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5248971788647552E-6</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="3"/>
-        <v>4.4700000000000021E-6</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="1"/>
-        <v>1228.1879194630856</v>
-      </c>
-      <c r="J36" s="3">
-        <f>$G$33*POWER($A$33/A36,1)</f>
-        <v>2.0505116279069765E-5</v>
-      </c>
-      <c r="K36" s="3">
-        <f>$G$23*POWER($A$23/A36,3)</f>
-        <v>9.5248971788647552E-6</v>
-      </c>
-      <c r="L36" s="3">
-        <f>$I$33*POWER(A36/$A$33,2)</f>
         <v>1323.8545710403716</v>
       </c>
       <c r="M36" s="3">
-        <f>$H$23*POWER($A$23/A36,3)</f>
+        <f t="shared" si="4"/>
         <v>3.3667224269561174E-6</v>
       </c>
       <c r="R36" s="10">
-        <f>$P$5*POWER($O$5/A36,3)</f>
+        <f t="shared" si="5"/>
         <v>4.2788685272994835E-2</v>
       </c>
     </row>
@@ -9402,7 +9388,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.2818181818181818</v>
       </c>
       <c r="C37" s="3">
@@ -9418,35 +9404,35 @@
         <v>27.353000000000002</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0935000000000002E-5</v>
       </c>
       <c r="H37" s="4">
+        <f t="shared" si="9"/>
+        <v>4.2929999999999994E-6</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="7"/>
+        <v>1249.475890985326</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0039090909090906E-5</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8901202103681418E-6</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="3"/>
-        <v>4.2929999999999994E-6</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="1"/>
-        <v>1249.475890985326</v>
-      </c>
-      <c r="J37" s="3">
-        <f>$G$33*POWER($A$33/A37,1)</f>
-        <v>2.0039090909090906E-5</v>
-      </c>
-      <c r="K37" s="3">
-        <f>$G$23*POWER($A$23/A37,3)</f>
-        <v>8.8901202103681418E-6</v>
-      </c>
-      <c r="L37" s="3">
-        <f>$I$33*POWER(A37/$A$33,2)</f>
         <v>1386.145186335403</v>
       </c>
       <c r="M37" s="3">
-        <f>$H$23*POWER($A$23/A37,3)</f>
+        <f t="shared" si="4"/>
         <v>3.1423506761833204E-6</v>
       </c>
       <c r="R37" s="10">
-        <f>$P$5*POWER($O$5/A37,3)</f>
+        <f t="shared" si="5"/>
         <v>3.9937077385424485E-2</v>
       </c>
     </row>
@@ -9455,7 +9441,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.27555555555555555</v>
       </c>
       <c r="C38" s="3">
@@ -9471,35 +9457,35 @@
         <v>26.745000000000001</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0705999999999998E-5</v>
       </c>
       <c r="H38" s="4">
+        <f t="shared" si="9"/>
+        <v>4.1360000000000007E-6</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="7"/>
+        <v>1268.3752417794974</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9593777777777774E-5</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3105185185185188E-6</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="3"/>
-        <v>4.1360000000000007E-6</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="1"/>
-        <v>1268.3752417794974</v>
-      </c>
-      <c r="J38" s="3">
-        <f>$G$33*POWER($A$33/A38,1)</f>
-        <v>1.9593777777777774E-5</v>
-      </c>
-      <c r="K38" s="3">
-        <f>$G$23*POWER($A$23/A38,3)</f>
-        <v>8.3105185185185188E-6</v>
-      </c>
-      <c r="L38" s="3">
-        <f>$I$33*POWER(A38/$A$33,2)</f>
         <v>1449.8677697981357</v>
       </c>
       <c r="M38" s="3">
-        <f>$H$23*POWER($A$23/A38,3)</f>
+        <f t="shared" si="4"/>
         <v>2.9374814814814814E-6</v>
       </c>
       <c r="R38" s="10">
-        <f>$P$5*POWER($O$5/A38,3)</f>
+        <f t="shared" si="5"/>
         <v>3.7333333333333329E-2</v>
       </c>
     </row>
@@ -9508,7 +9494,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.26956521739130435</v>
       </c>
       <c r="C39" s="3">
@@ -9524,35 +9510,35 @@
         <v>26.163</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0492E-5</v>
       </c>
       <c r="H39" s="4">
+        <f t="shared" si="9"/>
+        <v>3.9990000000000002E-6</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="7"/>
+        <v>1282.8207051762947</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9167826086956522E-5</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7802251993096076E-6</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="3"/>
-        <v>3.9990000000000002E-6</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="1"/>
-        <v>1282.8207051762947</v>
-      </c>
-      <c r="J39" s="3">
-        <f>$G$33*POWER($A$33/A39,1)</f>
-        <v>1.9167826086956522E-5</v>
-      </c>
-      <c r="K39" s="3">
-        <f>$G$23*POWER($A$23/A39,3)</f>
-        <v>7.7802251993096076E-6</v>
-      </c>
-      <c r="L39" s="3">
-        <f>$I$33*POWER(A39/$A$33,2)</f>
         <v>1515.0223214285702</v>
       </c>
       <c r="M39" s="3">
-        <f>$H$23*POWER($A$23/A39,3)</f>
+        <f t="shared" si="4"/>
         <v>2.750041094764527E-6</v>
       </c>
       <c r="R39" s="10">
-        <f>$P$5*POWER($O$5/A39,3)</f>
+        <f t="shared" si="5"/>
         <v>3.495109723021287E-2</v>
       </c>
     </row>
@@ -9561,7 +9547,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.26382978723404255</v>
       </c>
       <c r="C40" s="3">
@@ -9577,35 +9563,35 @@
         <v>25.606000000000002</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0293E-5</v>
       </c>
       <c r="H40" s="4">
+        <f t="shared" si="9"/>
+        <v>3.8780000000000008E-6</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="7"/>
+        <v>1294.9974213512132</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.876E-5</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2941063155562841E-6</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="3"/>
-        <v>3.8780000000000008E-6</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="1"/>
-        <v>1294.9974213512132</v>
-      </c>
-      <c r="J40" s="3">
-        <f>$G$33*POWER($A$33/A40,1)</f>
-        <v>1.876E-5</v>
-      </c>
-      <c r="K40" s="3">
-        <f>$G$23*POWER($A$23/A40,3)</f>
-        <v>7.2941063155562841E-6</v>
-      </c>
-      <c r="L40" s="3">
-        <f>$I$33*POWER(A40/$A$33,2)</f>
         <v>1581.6088412267072</v>
       </c>
       <c r="M40" s="3">
-        <f>$H$23*POWER($A$23/A40,3)</f>
+        <f t="shared" si="4"/>
         <v>2.5782148464213138E-6</v>
       </c>
       <c r="R40" s="10">
-        <f>$P$5*POWER($O$5/A40,3)</f>
+        <f t="shared" si="5"/>
         <v>3.2767305895610804E-2</v>
       </c>
     </row>
@@ -9614,7 +9600,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.25833333333333336</v>
       </c>
       <c r="C41" s="3">
@@ -9630,35 +9616,35 @@
         <v>25.073</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0106999999999999E-5</v>
       </c>
       <c r="H41" s="4">
+        <f t="shared" si="9"/>
+        <v>3.7739999999999998E-6</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="7"/>
+        <v>1303.1266560678323</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8369166666666667E-5</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="2"/>
+        <v>6.84765625E-6</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="3"/>
-        <v>3.7739999999999998E-6</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="1"/>
-        <v>1303.1266560678323</v>
-      </c>
-      <c r="J41" s="3">
-        <f>$G$33*POWER($A$33/A41,1)</f>
-        <v>1.8369166666666667E-5</v>
-      </c>
-      <c r="K41" s="3">
-        <f>$G$23*POWER($A$23/A41,3)</f>
-        <v>6.84765625E-6</v>
-      </c>
-      <c r="L41" s="3">
-        <f>$I$33*POWER(A41/$A$33,2)</f>
         <v>1649.6273291925454</v>
       </c>
       <c r="M41" s="3">
-        <f>$H$23*POWER($A$23/A41,3)</f>
+        <f t="shared" si="4"/>
         <v>2.4204101562500002E-6</v>
       </c>
       <c r="R41" s="10">
-        <f>$P$5*POWER($O$5/A41,3)</f>
+        <f t="shared" si="5"/>
         <v>3.076171875E-2</v>
       </c>
     </row>
@@ -9667,7 +9653,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.2530612244897959</v>
       </c>
       <c r="C42" s="3">
@@ -9683,35 +9669,35 @@
         <v>24.561</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.9933E-5</v>
       </c>
       <c r="H42" s="4">
+        <f t="shared" si="9"/>
+        <v>3.6839999999999985E-6</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="7"/>
+        <v>1307.8175895765471</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7994285714285714E-5</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4369097909884488E-6</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="3"/>
-        <v>3.6839999999999985E-6</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="1"/>
-        <v>1307.8175895765471</v>
-      </c>
-      <c r="J42" s="3">
-        <f>$G$33*POWER($A$33/A42,1)</f>
-        <v>1.7994285714285714E-5</v>
-      </c>
-      <c r="K42" s="3">
-        <f>$G$23*POWER($A$23/A42,3)</f>
-        <v>6.4369097909884488E-6</v>
-      </c>
-      <c r="L42" s="3">
-        <f>$I$33*POWER(A42/$A$33,2)</f>
         <v>1719.0777853260863</v>
       </c>
       <c r="M42" s="3">
-        <f>$H$23*POWER($A$23/A42,3)</f>
+        <f t="shared" si="4"/>
         <v>2.2752254587799302E-6</v>
       </c>
       <c r="R42" s="10">
-        <f>$P$5*POWER($O$5/A42,3)</f>
+        <f t="shared" si="5"/>
         <v>2.8916522877372525E-2</v>
       </c>
     </row>
@@ -9720,7 +9706,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.248</v>
       </c>
       <c r="C43" s="3">
@@ -9736,35 +9722,35 @@
         <v>24.068999999999999</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.9721E-5</v>
       </c>
       <c r="H43" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5040000000000015E-6</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="7"/>
+        <v>1347.0319634703187</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7634399999999998E-5</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0583680000000003E-6</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="3"/>
-        <v>3.5040000000000015E-6</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="1"/>
-        <v>1347.0319634703187</v>
-      </c>
-      <c r="J43" s="3">
-        <f>$G$33*POWER($A$33/A43,1)</f>
-        <v>1.7634399999999998E-5</v>
-      </c>
-      <c r="K43" s="3">
-        <f>$G$23*POWER($A$23/A43,3)</f>
-        <v>6.0583680000000003E-6</v>
-      </c>
-      <c r="L43" s="3">
-        <f>$I$33*POWER(A43/$A$33,2)</f>
         <v>1789.9602096273281</v>
       </c>
       <c r="M43" s="3">
-        <f>$H$23*POWER($A$23/A43,3)</f>
+        <f t="shared" si="4"/>
         <v>2.1414240000000002E-6</v>
       </c>
       <c r="R43" s="10">
-        <f>$P$5*POWER($O$5/A43,3)</f>
+        <f t="shared" si="5"/>
         <v>2.7216000000000001E-2</v>
       </c>
     </row>
